--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/40_İstanbul_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/40_İstanbul_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B1A1E2B-1B56-4F9A-97BB-AD3E5F15D7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDC7EA68-7230-450B-8A1E-02580735AD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="706" xr2:uid="{DCD52A1B-A90A-46C5-9902-5E59CFBFC5F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="706" xr2:uid="{BDA80CDE-F002-4EDE-B1FB-0B4BAD199AEA}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -954,13 +954,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{A7FFE708-F88D-4D27-9D09-B4B6CBE7A3D5}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{95EA80ED-BDB9-44C8-8C7C-126DE0EE6704}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{A66D9B5B-0E7C-4711-970C-10D0AC27D1B4}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{9308EFE6-1F79-4232-8CF2-E137968D2724}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{A0630ED5-44A3-4FAB-91D2-94375F2E5301}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{8CA90F9F-B82F-4FF9-9404-17269062FE97}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{5484D151-5BFD-443D-B7B3-4ED4A80BBFFA}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{F63EBBBC-0DA7-4F70-A048-CBF3E47661D7}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{12F96223-A65B-4327-9241-7DDFD6710010}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{E3594531-C7CE-4773-9ACE-BC4C275E3D82}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{E8ECED5C-723A-4EEC-8536-2938CD894F4E}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{D55CA1BD-B5E7-49F2-8839-8795FA12E3DF}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{8F805A97-AB21-43FB-B8F2-D2001C9DA612}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{DD37345F-4A43-42DA-9D45-CD2E60ACEA3A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1330,7 +1330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7585A871-3CDE-482D-B950-E51EF27799ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47935BF1-093B-44A1-9E97-5A2923B21627}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2655,18 +2655,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F216301B-FEBB-4150-9B09-C522F6BDBF93}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{447E73A9-A13F-4D1F-B773-ACDD43992D8E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BE0CBCB4-4268-49EE-9BB1-EA73A5DC7770}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FAD73F94-4D54-4D8C-84F9-E2F61EA8B9F3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B834A702-B4EE-461D-A830-1315EF4AA28E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E98F20AD-A005-4FD3-BCEE-1D61FA60D92E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4E3A897E-96E5-43BA-AD68-A2D40A0CFF5A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{70B8A2D1-1F13-4646-BAF3-691D4D98BA31}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C8D07121-5D04-4295-ACC7-80AD55334077}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0AB523D4-2B46-4BA4-A9F5-BD90FBAA9199}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2541551C-A9E6-451C-AD76-E1986D402CB6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BBEDD43B-7AA0-471D-9FD2-FC638BFC1708}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{055A229B-2CBB-406C-B00C-AB67762C6CBD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8B511168-8E3A-444F-971C-B653BF81C0C6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EB617949-C147-418E-9918-E1D651F5AED6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{842BCAE5-7961-495A-9E97-C7751B64A2E2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8EBDD6A9-6865-4ABB-B108-E913FD563A19}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{780DB7CC-0E06-4CAF-8268-A56D8B371D26}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{99D83CA1-6788-4797-80FD-B52ECC13A4E7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7E97A9C6-E856-4278-A2D6-4390B1F98FC2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{10605E14-7B3F-4F5A-932D-E897A4D85103}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A32F89DB-0E11-4F4E-9037-54C69326578E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{63CD14CF-D1ED-453C-9F16-A06C1E4C8E61}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B6F7CC8D-39ED-499C-AB37-454FB7BAA240}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2679,7 +2679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97FBE07-3822-4028-B0D2-7AFBB726C80F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6900DFB-FD62-4D86-BCBC-E39803DD8204}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3994,18 +3994,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{847BBEC7-840E-49E4-981C-1A68D79158A7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{92ECE492-4CE7-499E-951C-FF4133471AE5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B6DC1041-1B92-4415-B041-9E027B7E7BE3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7E3EE903-1DAB-4F70-B416-199A76549FC0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F1B2D05B-BBB7-467F-ABBF-0A21526C84A2}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0C7B207E-14DA-4892-ADE1-D01306B48D04}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CED684E9-A6B5-4D2D-B061-B942A5D15283}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D114FA8F-28BC-4A87-AB40-0B922165ADDE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C94F3C79-DAC8-4BF4-8EDA-941DAFB3A208}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2AD584EA-8972-4661-9EF3-2640CDA3D1FD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4BB1EC3B-0785-41D7-BED7-4DD3EE183BFA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3D5E3586-4B41-4B2D-B67B-EAB66F8E5F3B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1ABA2F82-EB03-4FE8-A50D-F31CDE837A81}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D52B18C7-C0CC-438B-B8FD-017E807DF0E9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C1B82CC5-F973-45A7-BD0F-4F2A9597FEE8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{56828BC6-C79F-4567-8B3F-F1116705E6B8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2C896710-D82F-449D-A5E2-C1315639F878}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E56A22F0-148D-46A6-BF57-BA3BF050C5BD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{638DFA02-44AF-486C-957E-61A4B3868044}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9724D12B-29D9-4BEB-BD5F-586C4903008E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{86EB235F-A2D9-4F67-8CAB-4B850A9D9905}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{44BC7C9B-22B2-4DD9-B674-B65E247BAFFA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{261DFC53-389F-4195-ACCE-E12618966B56}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BC2355BA-3EA5-42CB-840D-73F6FAF475F2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4018,7 +4018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D3C4CF-FD5E-4588-A1BE-D5240E08220E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856BD7C1-7B52-4182-8862-442B3F896954}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5333,18 +5333,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CA4362D1-3EC3-448E-BE59-209F1AB0D7E1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D8A14A07-9D62-48E8-8961-F67A42F610AA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A13DAA69-1C9C-431E-A3AC-4A5F0DAEBF03}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EB155186-6336-41F7-A6F4-4B27F990802F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D01889E3-EEC5-4F74-B14D-B8C3B8B5077E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{76728668-19D1-48EB-99D5-3D30CDCD938E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2A033291-F6FC-4536-A71C-3D3A8D6CD393}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CAD700FC-BFB1-466F-A111-EA27EB000F27}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5C1F520E-D38D-4FAB-AB84-67794A62E984}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1A4806DE-D830-4AE0-9053-C9EA3B9F5EDF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CED938B9-8003-431D-B9D5-4E07BB3DAD95}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1582ABCC-EB82-484C-BB57-273021F4B6BC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BFD99D34-4744-4AAE-957B-023826529A95}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1FC184A1-FBCF-452E-8403-2221BF656F91}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3BF209F2-2946-45F9-964A-B5201F9E0FD0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C98D613E-A89C-4A4B-AFCE-769522FEEA27}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C19FC211-3275-4372-AA00-5E3D2F4A248F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EDC99E80-4C74-42C7-8688-030EB0E08167}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7B4BA89B-B320-4DAD-9A16-50865CD5581F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{68AD28F6-AB1D-494D-A7F6-CB50EA54E1DB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{30E0039D-B4F6-49E4-AB62-80BB27727054}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D6B3BFA4-464F-49A3-871C-AA6C6A256121}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A0670608-8990-4547-842A-9F675E5E9918}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BE7ABF8C-8AC8-4BE8-B275-7BED0645E50C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5357,7 +5357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2565ECF-1634-4AD8-9E81-F22B21C33184}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F41E95-64C6-4BED-8139-6F7F766720F6}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6673,18 +6673,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{588C29DD-674C-47B9-A594-BAEC79E39043}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0457A7BC-D091-49A6-9F07-9F70A8C40D83}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{86F68AD2-46F2-4639-95F4-1CB390176520}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EC6E4EFE-6053-4338-8BC1-FA0A143BF343}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{804D7DE4-8FDA-4613-B9C9-DAC8C337B490}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{361331A7-BB47-4978-98AA-A9E4D2F72777}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E52AD94C-F4A7-4187-82D2-283623E3140B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{622032B2-2453-4C98-81D6-F515D4D105A7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F00595B6-98D7-4682-9F84-FF9CD5675B3B}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2375D676-FC8D-47BC-A082-C1E3173AF7E2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9A107E8B-E998-4D85-B72C-5F38886CA17C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{013D0790-A05A-45C0-8436-2046D515E876}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1B712612-51A5-433E-AC65-C365F972B165}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8D9C0D99-2D17-494B-B523-7C1EE6808ADF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5B6A2BC9-BCAF-4C7C-B093-50F472917FFF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BDF085E0-47FA-454D-9724-65550016EB34}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4C0A7E45-72AE-4307-89CE-889D0B050CB8}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{50D12B51-FCBD-491A-B71F-C8048ACA44F7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A159C17E-D4BD-4413-8300-6B2CFFC0E216}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9EB97E38-6B7A-42B1-98B7-C842E450B221}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7429C4CA-89E5-4CE5-A1D9-1589C3370CF1}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{801A9A61-3EE1-403E-89D2-E01E87B2DEF5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1CF827CA-B2ED-43AF-A513-CD530E0E1B72}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FDAF4C6E-0D6E-450F-8012-CA73838FD5CE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6697,7 +6697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5851A1F4-4979-44DE-ACDF-79329AB656B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67ED4340-59F3-4270-8EA5-49D42F78492D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8024,18 +8024,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D98917E0-2A63-42FE-B1AA-95B434330DF4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{85B6615C-09CE-4DE1-902C-4128CC33923D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5BF26C6D-534D-4C08-97DD-D2628774C68C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BF73CB2C-2EAA-4691-AC86-52F80E986E76}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{03A29A92-3EB1-4C0E-8B61-CE73466FBEA4}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{63E90862-315C-46ED-90AB-8347D359F15C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A26D6924-A376-4033-89F6-050E790F2DFD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C9724F93-B433-4A40-9855-87CC8913A718}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7FE53BD0-81DF-47F8-83F0-B79F1911E0CE}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2DDB740C-9690-48B2-AF83-88D2BBB024C2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6AFAEFE5-1B01-4FCE-8CE4-925E4D16A216}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F53874AE-F423-468A-BFE5-D725A2617B35}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{07395CA5-4700-48F2-A894-411DD75F8A70}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B100DEE4-950A-4220-A6D4-3E054B3DCEBD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E147F2F1-B5E9-4EC7-B0EF-495931B41624}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7F98058B-84E4-42BC-9CAA-7DBCE76484D2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2B216EC3-A195-4F91-87F3-00BD41B4C44A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AEB82CFF-2198-4803-87D8-E9E9BF10CA49}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FB439A7E-8F7C-43C2-8778-7DEF1F89B525}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EF3BBEDC-EF11-440E-A221-1F122AF812C2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D16F10F5-49C8-4017-9952-ABB76810EDE2}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9DFA5AB8-1DAD-4E82-8247-23960B979908}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3A5D1034-699A-4CFF-A244-ABBB9FE99883}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2870C120-6554-48C8-8B83-D626C6A89B3B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8048,7 +8048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C737D37-88C0-4FE2-9C4A-A00A8EE5463D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9394091-E5D3-4D87-A281-4786130ED93E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9375,18 +9375,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{55A32CEA-4C68-4191-9E2B-52E484CA060F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{37FB0EA4-8644-4B27-95BC-C62943B97E04}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2E7F6298-7924-43BE-8DA7-C369BFAEEA73}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1B36A358-2760-45A6-8B77-D453BFD1A8CE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1C6C0538-8E89-4F22-A0BE-E89ACC27CB9A}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5E7680A0-4476-4545-BD9A-1DC0207F26DA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1AC5ABC2-509B-4291-B296-59A2370E163D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AAC3ABE1-5DB1-40ED-994B-F2963845BB31}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C5A48C3E-E20F-429C-B3AA-C6291EC9F0F4}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{15F65B0A-848D-4410-B7AC-590D304F5518}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6E13A0BA-67E5-498F-898F-77EE4878BA45}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6F03FE2C-6E6E-493A-87EF-5EB071187F9A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4783D3FD-BDB6-440C-B611-66E3461FE9C9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{78FB2C8A-E0EE-4478-BDC2-E75F5045FB1B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{07A85A28-CDD8-4AA7-964D-B9D846FC957B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{30EFFCBF-D7EC-49A6-A83B-2BF548E34C2C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5CC532B8-F2B4-43EA-AD66-7606E164AC12}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F5EF991E-6A31-44CA-8371-5357CEBE1D27}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F75AFF36-86A7-48D3-877D-49CC020FE881}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{431EBDF0-CE36-488E-8FE4-E44DDF36E583}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{505EC45F-4473-4095-84D2-C1034EB708A6}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{13655319-B58B-464A-843F-A87BC76C120E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C7B98B74-24EB-4AC6-96B8-77E49A1C46C8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{25E6327E-0F95-41E9-B043-09DB6255B101}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9399,7 +9399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28299F0-E01A-40F7-9460-BB4575219B52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9724216-805C-4CD6-817D-7701BFBCD6FD}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10726,18 +10726,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{82CBFABC-B8D4-4136-9D12-7F903048B66C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5F07691C-EDB4-4F68-BDBC-494F58705F2C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C176A908-3A54-4B58-B4B5-3F63C1F42861}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BDF4B430-6202-459E-8843-27C55F8C4DCA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0C1EFFCD-604F-4BF3-8960-2BC538A11152}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DABBF6B1-6BE0-4D1C-8FA0-AB074077807B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{08444D27-C3F1-40FC-A8BE-8A4B54BA6BB2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D736D656-7377-4774-8793-00AC59157CEC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E36F2C84-8191-4944-85AB-EA6675B06C93}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8E70DB04-70EC-4403-B966-3089D7FB06A9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F52C2CDB-51C0-4E26-B159-4ACB28AF1972}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E42A5CE2-B25D-4D01-AFA6-66581F42DF6A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ED16BC6B-174C-49C2-890F-4D683268ECE8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{88803D2A-06CC-463C-9EEA-51C641307CFD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6689B289-5560-4E90-9026-B2449CBA56B8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F459A11E-EE30-486F-89E9-804F8F87DE81}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5FD6D0EC-EBDA-44DB-AB8D-EB3AB30F3152}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AC8E2FA9-2E01-416E-B1DF-27643A23D58C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BF59D913-3D07-49A9-837E-3684E3649C87}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CA57B51C-5152-4384-B156-68CD7A860DCC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2609EF83-CEE7-46FA-9330-A1C09A7B8E3A}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{81CFB000-EECB-499F-9BD6-8E99ED746450}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8BFE9E38-E5FA-4053-BB89-19E7089B5F1D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{13D92FD1-4A07-4023-95F4-40ECBF76810B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10750,7 +10750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBBBE34-4152-4FCA-A709-970DE980BC13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459D7820-92D6-47D1-B999-F52F6CAE00D5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12073,18 +12073,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E7F51422-8D45-4D25-810C-8752F8A569E8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{684CD0E9-1DF0-49C0-98BC-DED2DAA2F5A2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BB583B54-9B51-458F-B60A-F70EB3D4954F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D6EB1F8B-6B1D-4E59-814C-D67D99418942}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{41B64491-17D5-4B81-B4B1-DCD7F02CBD8F}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E0AB1D7B-2B14-422B-801D-287D8AE2EC54}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4440557A-0789-4C6A-8B21-B7DCBC11DF79}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5F08BC69-2C05-451B-B390-A7E1CFA02D70}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CE555C44-4498-4853-B53D-7D7B404FBE6E}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{45255BB2-05D3-491F-8102-F8D9E0F45C7F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A7BFEEA0-8D8B-44C2-B21F-2DD43D037245}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{94B94AA4-835D-4968-AB0C-3152853DD991}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{38AC120B-9FB1-4E34-8625-16ECC36527A4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{369D7A54-0751-402D-8FC1-39C007CE5421}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{10EC0F9F-8281-4674-925B-773AD17D7CBA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C0760CD7-CA00-4F19-B450-53E31EC30D84}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5BD69A7A-61A0-42ED-B002-E3EFAF7D9CE5}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{874968D4-AF26-4E11-B282-C22B3176FB55}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CF5CAD32-618F-426B-AF7D-CB689A1DF08A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5052515B-60FD-4FD2-A28B-B7B8D874EE4D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F51D8115-3D3B-46CE-AF83-8FA1A927ABBB}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{395B801F-0C59-447D-8123-6902C1A46185}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C128F775-8483-4C6E-BD2B-381614DDC393}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{80510E93-9FDF-4B7D-BC5F-63C10B8F70EB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12097,7 +12097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29DCB15-42DE-4621-888F-200E91F361F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA518A5D-61A2-4D85-B452-6EF4AC973561}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13404,18 +13404,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F95A43C7-A45E-4903-A2E7-60C2805263EB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D8B8796F-12C3-4CE3-8C5F-A6E66C2CC249}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5E014EF9-73DB-4A42-9DA9-17B887985646}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CB0DEE40-4166-4943-A2A7-BC9DC2B31B30}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{978DF61B-C517-4CDF-B338-51CA06A8A553}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A6622ECB-49C1-4F4F-BE4C-60BE03984D89}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0BA471CB-E949-48CA-A4EC-9DBB845AC635}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2C7CA4B0-56EF-48B7-98AC-DFEE6BAD7028}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ABFA006A-AA1B-4094-9265-13E8AC2DB1B4}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6B7165E9-94B4-47FB-819F-D3A71E15128D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CF1A154C-A861-4BDD-9D5D-A897B91DA38A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BF637213-9478-458E-BA84-657F67DBC931}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FE870B9A-21C8-4D19-A8D7-1AC748C2DCBF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C2417FA5-1AC3-434A-BFF1-9F454FBF27DD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7FF76432-647F-4C84-96CB-F45350A3F805}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EA1CA2A5-608E-4E2D-AAFB-355D96D9604C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5717B5EA-6A37-4726-AE35-F9A9CE388A7F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DD28A84A-B6FA-4D75-AF8D-39D0AD0535A4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{29754D3E-3247-40F4-ADDE-0A40CAD6CA07}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{741BEE41-900A-441C-BBE1-0EE9B47AB9C3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3ADC4BA7-1047-4877-B352-AF12C4148D35}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7CF77C60-3068-4AF1-87F5-B4FA2BE1F568}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E7F24288-BB5E-417D-AA65-6C9CE8EBB8C4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{65E0451C-E20D-41D7-B88E-CACF7213FF8B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13428,7 +13428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A501F96A-28FB-4EC2-AE1F-0080EFB90FC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20701358-C46F-49A5-BE7D-401FB1B784BE}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14743,18 +14743,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1D2C7FFB-B4C7-4624-840D-BFB3B31D7967}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F5843D03-4AA2-43AF-9D06-4D0B4B09D5CF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{775C6395-9BC0-43DF-B57E-2A6E17105DCB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6339D50B-307E-4E37-8EB4-F5B39466944B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DA86144A-99C1-430E-8A4D-F9C0A5A188AB}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2F5C312A-D412-4470-BDD1-711B79A199B8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4818B9E4-5FE4-42F6-AEA7-8DF8425AD833}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BB7411E2-87CA-40D7-89B9-D7A0A3E83B6E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{279E0E3C-1A9F-4AE2-A583-608D6296068C}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A8E6AD70-5632-467B-96CD-A06893C038AB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EB9A5D02-2440-4EA6-A1CE-73A06FF4612D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{92F8F678-189C-4A56-B5BC-2D24FB9D115F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A9BB85AB-E8B1-4A15-9046-C29350865CD1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6671E5EE-1090-4D1C-965D-A4970032DB35}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D109BD75-F34C-4A70-9493-DEF3583DBD01}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7D99CC0B-B835-4D30-989C-51047BEE0094}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9F0458B2-A9D0-4679-8796-B36CED54D5DF}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3D8CF456-AFB8-44AF-81AD-18E76890FC29}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1771D91B-94CA-4819-BEB4-2763606D08B2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8F8A81AA-CB50-41A6-B4EE-D91A5A5D1D1D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C19561D1-4ED7-4ECB-945F-540DABABDC83}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{030230B1-D920-4EBC-98EF-0F222A0F2CCA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{877A1B87-D352-4FC7-BE1D-1E088A120523}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6F1E4FF6-3995-43C7-B61B-911E5D2EECD7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14767,7 +14767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F756B943-56BF-463D-A957-FDEBC0AB3869}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D06CCF-19AC-4566-A30E-DB7D7DBE0E13}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16082,18 +16082,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DFCB1579-55E0-4F4D-A072-820C8E230247}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{309CFFD1-B533-40ED-8EDC-250749C23206}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B5FA9D74-DBD1-4CF5-B07E-AFD37118F525}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6C8661EE-28BD-4D7E-8951-B9C98E069A19}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{389DEAE5-D217-466F-940D-A959AA9209A9}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7CC727E8-70F0-478F-8CE7-BC375295A975}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{16F18FCC-944E-4DF2-B85F-14D445E689F5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E5F848F6-6F61-429D-B2E4-764B8DF38541}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{24BDA9D9-B48C-4DC4-AFBD-9E25601DC616}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F6BFB2BF-4F57-432B-9E0B-247F141E1DAB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4E261E0A-C425-41CC-9089-1E4BD12CC292}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E207D738-76E9-473E-9652-BE461E1AE63E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{296D77F8-49B2-4BF6-A15C-D5A0E451DC0C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BCB3D7EB-4377-400A-B083-2F7AF4B27A5C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{355E809E-4B75-49A4-A8B3-97C01F939EB2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3F74C1A1-7207-409A-95B9-F2C4B8983CAD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{55E18A22-13AC-461B-A495-76E9F094D6BF}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{351A414E-2CBB-48D0-AB7F-A7706184527B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{05C9C79D-D396-4D4E-AD46-B42DE0A65484}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C1E0A4B1-7B11-4992-8908-E9C4068B102D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3EE1661C-0869-4DF8-8283-4FBC9FE29898}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5792AD48-0A8E-40AF-8A90-7DE8FDB8A732}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5481F88B-E052-4D7B-B5D3-31A5C23BF8FB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5892032D-BC0A-4A86-80A2-BE354B2ABC6E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -16106,7 +16106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0122949-4C3F-4E0F-B023-A8C8D357580F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2095C59C-6509-4B46-8857-C7A62444B12D}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17421,18 +17421,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F6238C29-EDEF-45DC-AA2D-051F61E2A173}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E9884332-B2DD-418A-A144-9208F80F50B2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A96A0194-F4A6-4414-92F8-4ADDBB750FB0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{54DBBA60-9910-4DC7-9363-2288E26A6FDA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B9500226-2602-4013-B663-50479C63D308}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1E72CA49-F265-4669-9A6A-082502F25642}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{87B839CC-361D-4626-B781-D5436794C81B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{644B0A96-B048-4917-A805-F5A006BF3208}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{003F6067-B43A-4787-ABFF-366FFC92C63A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{758C3E52-03D9-4806-8256-BBD1BB3D8E70}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{050B9F50-A787-4A0A-882F-F0834DCF33C4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B21F7687-2B40-4084-9B19-E015DE32E70F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C1275D99-2B96-4CE7-A42E-FECD072F1E29}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{45C30D13-F1DC-4582-A76A-C3B757C10F25}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9A39D6B3-3A54-459E-8BD6-1063C2F9C10A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{94D135A5-1203-47A9-9433-81A0E2F523F5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{00B5E87C-A8E6-4778-B31A-3A40ABA451DE}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6BBEB42F-7F44-4632-A4B5-321E56ABC406}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{598E1D54-3D1A-4D76-81CB-381F22716E62}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{83ECF52E-0972-4445-9D8F-EE7DE533AB15}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{035D6AA9-9959-4C2C-A40B-C656612EAA8D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E673537D-FC86-40C8-9D7E-9165030EAA9F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B22EF9FD-D526-4215-8721-071EC0E98CE4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2D52AB88-784B-4580-A8D8-EB4F5BCE86E7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
